--- a/biology/Histoire de la zoologie et de la botanique/Étienne-François_Dralet/Étienne-François_Dralet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Étienne-François_Dralet/Étienne-François_Dralet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Dralet</t>
+          <t>Étienne-François_Dralet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne-François Dralet est un administrateur et un forestier français, né le 13 janvier 1760 à Neufchâteau (Vosges) et mort le 21 décembre 1844 à Toulouse (Haute-Garonne).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Dralet</t>
+          <t>Étienne-François_Dralet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un arpenteur forestier, Étienne-François Dralet fréquenta le collège de sa ville natale avant d’étudier les mathématiques et la jurisprudence à Paris, puis le droit à Pau. Il fut reçu avocat à Auch en 1786, mais il n’exerça pas et géra le domaine de la famille Montesquiou-Fézensac, près d’Auch. Sous la Révolution, ses relations avec Philippe-André-François de Montesquiou-Marsan, comte de Montesquiou le firent incarcérer à Lectoure pour « girondisme » pendant dix mois.
 Libéré, Dralet exerça à partir de 1794 diverses fonctions publiques : administrateur du directoire du district d’Auch, chef de bataillon de la garde nationale, juge au tribunal civil du Gers, puis membre du tribunal criminel.
 Le 4 ventôse an IX (23 février 1801), il devint conservateur des Eaux et Forêts à Toulouse, une fonction qu’il exerça jusqu’à sa retraite, en 1833. Administrateur avisé et intègre, il s’attacha à rendre à l’État les forêts usurpées par des particuliers ou des communes et à rétablir une ressource très dégradée pendant la Révolution.
-Darlet publia de 1812 à 1824 une série de « Traités » dans lesquels il se montre partisan et premier théoricien du traitement en futaie jardinée des forêts, se déclarant ainsi adversaire des nouvelles méthodes d’aménagement en futaie régulière prônées par Friedrich August Ludwig von Burgsdorff (de)[1] et de Georg Ludwig Hartig de l’école allemande[2].
-En écrivant dans son Traité du hêtre de 1824, « Aidez la nature en l’imitant, et elle récompensera promptement vos moindres soins »[3], Dralet semble avoir été le premier auteur, bien avant Adolphe Parade (1837), d’une grande idée : « Imiter la nature et hâtez son œuvre » qui devait inspirer ensuite toute la sylviculture française[4].
+Darlet publia de 1812 à 1824 une série de « Traités » dans lesquels il se montre partisan et premier théoricien du traitement en futaie jardinée des forêts, se déclarant ainsi adversaire des nouvelles méthodes d’aménagement en futaie régulière prônées par Friedrich August Ludwig von Burgsdorff (de) et de Georg Ludwig Hartig de l’école allemande.
+En écrivant dans son Traité du hêtre de 1824, « Aidez la nature en l’imitant, et elle récompensera promptement vos moindres soins », Dralet semble avoir été le premier auteur, bien avant Adolphe Parade (1837), d’une grande idée : « Imiter la nature et hâtez son œuvre » qui devait inspirer ensuite toute la sylviculture française.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Fran%C3%A7ois_Dralet</t>
+          <t>Étienne-François_Dralet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvre écrite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’œuvre écrite de Dralet est considérable, à la fois comme économiste rural et comme écrivain scientifique et forestier. Outre de nombreux articles, il publia notamment :
 L'Art du taupier, ou Méthode amusante et infaillible de prendre les taupes, Paris, Audot, 1880, 17e éd. (1re éd. an VI), 116 p. (lire en ligne).
